--- a/output/LUAD_statistics_nonmucinous.xlsx
+++ b/output/LUAD_statistics_nonmucinous.xlsx
@@ -54,21 +54,21 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -135,40 +135,40 @@
     <t>27</t>
   </si>
   <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
     <t>Mutation NF1</t>
   </si>
   <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
     <t>Mutation ALK</t>
   </si>
   <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
     <t>Pattern OR_EGFR_KRAS</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Mutation PIK3CA</t>
+  </si>
+  <si>
     <t>Mutation RB1</t>
   </si>
   <si>
+    <t>Mutation ARID2</t>
+  </si>
+  <si>
+    <t>Mutation AKT1</t>
+  </si>
+  <si>
     <t>Mutation ARID1A</t>
-  </si>
-  <si>
-    <t>Mutation ARID2</t>
-  </si>
-  <si>
-    <t>Mutation PIK3CA</t>
-  </si>
-  <si>
-    <t>Mutation AKT1</t>
   </si>
   <si>
     <t>Mutation STK11</t>
@@ -365,16 +365,16 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.98638730127306E-4</v>
+        <v>4.23751999471512E-10</v>
       </c>
       <c r="G2" t="n">
-        <v>1.56420124039081E-9</v>
+        <v>2.46328156654618E-10</v>
       </c>
       <c r="H2" t="n">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -383,16 +383,16 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1125</v>
+        <v>0.13125</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04930066485916347</v>
+        <v>0.03547788826234667</v>
       </c>
       <c r="M2" t="n">
-        <v>0.11875</v>
+        <v>0.15</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0461165492107889</v>
+        <v>0.0437003686737563</v>
       </c>
     </row>
     <row r="3">
@@ -409,16 +409,16 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.497294669101E-9</v>
+        <v>4.98638730127306E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>3.31352455569443E-9</v>
+        <v>1.56420124039081E-9</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="I3" t="n">
         <v>60.0</v>
@@ -427,16 +427,16 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1</v>
+        <v>0.09375</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03227486121839514</v>
+        <v>0.03294039229342062</v>
       </c>
       <c r="M3" t="n">
-        <v>0.13125</v>
+        <v>0.14375</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0354778882623467</v>
+        <v>0.0514545376467853</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1125</v>
+        <v>0.125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03952847075210474</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
         <v>0.125</v>
@@ -494,16 +494,16 @@
         <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.23751999471512E-10</v>
+        <v>5.11067883527512E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46328156654618E-10</v>
+        <v>4.21328460987917E-8</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -515,16 +515,16 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05270462766947299</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
         <v>0.11875</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0461165492107889</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="6">
@@ -538,37 +538,37 @@
         <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>5.11067883527512E-4</v>
+        <v>2.497294669101E-9</v>
       </c>
       <c r="G6" t="n">
-        <v>4.21328460987917E-8</v>
+        <v>3.31352455569443E-9</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.11875</v>
+        <v>0.14375</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01976423537605237</v>
+        <v>0.05145453764678529</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1125</v>
+        <v>0.15</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0395284707521047</v>
+        <v>0.0322748612183951</v>
       </c>
     </row>
     <row r="7">
@@ -597,7 +597,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -620,7 +620,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -647,10 +647,10 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.10625</v>
+        <v>0.125</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04218428485690955</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
         <v>0.125</v>
@@ -843,7 +843,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -931,7 +931,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -1063,7 +1063,7 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -1151,7 +1151,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1395,10 +1395,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.58125</v>
+        <v>0.575</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0934021323810829</v>
+        <v>0.09682458365518543</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -1608,16 +1608,16 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.98638730127306E-4</v>
+        <v>4.23751999471512E-10</v>
       </c>
       <c r="G2" t="n">
-        <v>1.56420124039081E-9</v>
+        <v>2.46328156654618E-10</v>
       </c>
       <c r="H2" t="n">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -1626,21 +1626,21 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
+        <v>0.13125</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.03547788826234667</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.1125</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.04930066485916347</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.13125</v>
-      </c>
       <c r="N2" t="n">
-        <v>0.0547246897356821</v>
+        <v>0.0395284707521047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
@@ -1652,16 +1652,16 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.497294669101E-9</v>
+        <v>4.98638730127306E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>3.31352455569443E-9</v>
+        <v>1.56420124039081E-9</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="I3" t="n">
         <v>60.0</v>
@@ -1670,16 +1670,16 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1</v>
+        <v>0.09375</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03227486121839514</v>
+        <v>0.03294039229342062</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1125</v>
+        <v>0.15</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0395284707521047</v>
+        <v>0.0322748612183951</v>
       </c>
     </row>
     <row r="4">
@@ -1714,10 +1714,10 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1125</v>
+        <v>0.125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03952847075210474</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
         <v>0.125</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -1737,16 +1737,16 @@
         <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.23751999471512E-10</v>
+        <v>5.11067883527512E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46328156654618E-10</v>
+        <v>4.21328460987917E-8</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -1758,21 +1758,21 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05270462766947299</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
         <v>0.125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.058925565098879</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -1781,37 +1781,37 @@
         <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>5.11067883527512E-4</v>
+        <v>2.497294669101E-9</v>
       </c>
       <c r="G6" t="n">
-        <v>4.21328460987917E-8</v>
+        <v>3.31352455569443E-9</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.11875</v>
+        <v>0.14375</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01976423537605237</v>
+        <v>0.05145453764678529</v>
       </c>
       <c r="M6" t="n">
-        <v>0.125</v>
+        <v>0.1375</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>0.0493006648591635</v>
       </c>
     </row>
     <row r="7">
@@ -1840,7 +1840,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -1863,7 +1863,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -1890,16 +1890,16 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.10625</v>
+        <v>0.125</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04218428485690955</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.11875</v>
+        <v>0.125</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -1995,7 +1995,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
@@ -2028,10 +2028,10 @@
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1875</v>
+        <v>0.18125</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="12">
@@ -2080,7 +2080,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -2218,7 +2218,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -2256,13 +2256,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -2350,7 +2350,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -2682,10 +2682,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.58125</v>
+        <v>0.575</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0934021323810829</v>
+        <v>0.09682458365518543</v>
       </c>
       <c r="M26" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_nonmucinous.xlsx
+++ b/output/LUAD_statistics_nonmucinous.xlsx
@@ -57,6 +57,9 @@
     <t>16</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -138,6 +138,9 @@
     <t>Mutation EGFR</t>
   </si>
   <si>
+    <t>Mutation ALK</t>
+  </si>
+  <si>
     <t>Mutation NF1</t>
   </si>
   <si>
@@ -147,9 +150,6 @@
     <t>Amplification RIT1</t>
   </si>
   <si>
-    <t>Mutation ALK</t>
-  </si>
-  <si>
     <t>Pattern OR_EGFR_KRAS</t>
   </si>
   <si>
@@ -159,6 +159,9 @@
     <t>Mutation PIK3CA</t>
   </si>
   <si>
+    <t>Mutation ARID1A</t>
+  </si>
+  <si>
     <t>Mutation RB1</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
   </si>
   <si>
     <t>Mutation AKT1</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
   </si>
   <si>
     <t>Mutation STK11</t>
@@ -383,16 +383,16 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.13125</v>
+        <v>0.1375</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03547788826234667</v>
+        <v>0.05743353646704259</v>
       </c>
       <c r="M2" t="n">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0437003686737563</v>
+        <v>0.0510310363079829</v>
       </c>
     </row>
     <row r="3">
@@ -409,34 +409,34 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.98638730127306E-4</v>
+        <v>2.497294669101E-9</v>
       </c>
       <c r="G3" t="n">
-        <v>1.56420124039081E-9</v>
+        <v>3.31352455569443E-9</v>
       </c>
       <c r="H3" t="n">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09375</v>
+        <v>0.11875</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03294039229342062</v>
+        <v>0.03547788826234667</v>
       </c>
       <c r="M3" t="n">
-        <v>0.14375</v>
+        <v>0.1375</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0514545376467853</v>
+        <v>0.0493006648591635</v>
       </c>
     </row>
     <row r="4">
@@ -450,37 +450,37 @@
         <v>49</v>
       </c>
       <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E4" t="n">
         <v>2.0</v>
       </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F4" t="n">
-        <v>1.62759435766468E-5</v>
+        <v>4.98638730127306E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>5.12394683494785E-10</v>
+        <v>1.56420124039081E-9</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="I4" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.125</v>
+        <v>0.11875</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>0.046116549210788865</v>
       </c>
       <c r="M4" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.052704627669473</v>
       </c>
     </row>
     <row r="5">
@@ -500,16 +500,16 @@
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.11067883527512E-4</v>
+        <v>1.62759435766468E-5</v>
       </c>
       <c r="G5" t="n">
-        <v>4.21328460987917E-8</v>
+        <v>5.12394683494785E-10</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
@@ -538,16 +538,16 @@
         <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.497294669101E-9</v>
+        <v>5.11067883527512E-4</v>
       </c>
       <c r="G6" t="n">
-        <v>3.31352455569443E-9</v>
+        <v>4.21328460987917E-8</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -559,16 +559,16 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.14375</v>
+        <v>0.125</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05145453764678529</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.15</v>
+        <v>0.11875</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0322748612183951</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="7">
@@ -597,7 +597,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -620,7 +620,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -641,16 +641,16 @@
         <v>0.125</v>
       </c>
       <c r="I8" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.125</v>
+        <v>0.11875</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>0.01976423537605237</v>
       </c>
       <c r="M8" t="n">
         <v>0.125</v>
@@ -843,7 +843,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -887,7 +887,7 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="e">
         <v>#NUM!</v>
@@ -931,7 +931,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -1151,7 +1151,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1395,10 +1395,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.575</v>
+        <v>0.5375</v>
       </c>
       <c r="L25" t="n">
-        <v>0.09682458365518543</v>
+        <v>0.08936504412303006</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -1626,21 +1626,21 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.13125</v>
+        <v>0.1375</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03547788826234667</v>
+        <v>0.05743353646704259</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1125</v>
+        <v>0.125</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0395284707521047</v>
+        <v>0.058925565098879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
@@ -1652,39 +1652,39 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.98638730127306E-4</v>
+        <v>2.497294669101E-9</v>
       </c>
       <c r="G3" t="n">
-        <v>1.56420124039081E-9</v>
+        <v>3.31352455569443E-9</v>
       </c>
       <c r="H3" t="n">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09375</v>
+        <v>0.11875</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03294039229342062</v>
+        <v>0.03547788826234667</v>
       </c>
       <c r="M3" t="n">
-        <v>0.15</v>
+        <v>0.14375</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0322748612183951</v>
+        <v>0.0421842848569096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -1693,42 +1693,42 @@
         <v>49</v>
       </c>
       <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E4" t="n">
         <v>2.0</v>
       </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F4" t="n">
-        <v>1.62759435766468E-5</v>
+        <v>4.98638730127306E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>5.12394683494785E-10</v>
+        <v>1.56420124039081E-9</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="I4" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.125</v>
+        <v>0.11875</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>0.046116549210788865</v>
       </c>
       <c r="M4" t="n">
         <v>0.125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.0510310363079829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -1743,16 +1743,16 @@
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.11067883527512E-4</v>
+        <v>1.62759435766468E-5</v>
       </c>
       <c r="G5" t="n">
-        <v>4.21328460987917E-8</v>
+        <v>5.12394683494785E-10</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -1781,16 +1781,16 @@
         <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.497294669101E-9</v>
+        <v>5.11067883527512E-4</v>
       </c>
       <c r="G6" t="n">
-        <v>3.31352455569443E-9</v>
+        <v>4.21328460987917E-8</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -1802,16 +1802,16 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.14375</v>
+        <v>0.125</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05145453764678529</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1375</v>
+        <v>0.11875</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0493006648591635</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="7">
@@ -1840,7 +1840,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -1863,7 +1863,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -1884,16 +1884,16 @@
         <v>0.125</v>
       </c>
       <c r="I8" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.125</v>
+        <v>0.11875</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>0.01976423537605237</v>
       </c>
       <c r="M8" t="n">
         <v>0.125</v>
@@ -1995,7 +1995,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
@@ -2080,13 +2080,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="n">
         <v>10.0</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -2218,7 +2218,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -2256,13 +2256,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -2438,7 +2438,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -2682,10 +2682,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.575</v>
+        <v>0.5375</v>
       </c>
       <c r="L26" t="n">
-        <v>0.09682458365518543</v>
+        <v>0.08936504412303006</v>
       </c>
       <c r="M26" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_nonmucinous.xlsx
+++ b/output/LUAD_statistics_nonmucinous.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="80">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -54,66 +54,66 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>17</t>
+    <t>7</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -132,133 +132,127 @@
     <t>26</t>
   </si>
   <si>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
+    <t>Mutation ALK</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_KRAS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
+    <t>Mutation PIK3CA</t>
+  </si>
+  <si>
+    <t>Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>Mutation AKT1</t>
+  </si>
+  <si>
+    <t>Mutation ARID2</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Amplification CCNE1</t>
+  </si>
+  <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
+    <t>Amplification PIK3CA</t>
+  </si>
+  <si>
+    <t>Mutation ARID1B</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_STK11</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_STK11_TP53</t>
+  </si>
+  <si>
+    <t>Pattern XOR_PIK3CA</t>
+  </si>
+  <si>
+    <t>capri_aic.SELECTS</t>
+  </si>
+  <si>
+    <t>capri_aic.SELECTED</t>
+  </si>
+  <si>
+    <t>capri_aic.OBS.SELECTS</t>
+  </si>
+  <si>
+    <t>capri_aic.OBS.SELECTED</t>
+  </si>
+  <si>
+    <t>capri_aic.TEMPORAL.PRIORITY</t>
+  </si>
+  <si>
+    <t>capri_aic.PROBABILITY.RAISING</t>
+  </si>
+  <si>
+    <t>capri_aic.HYPERGEOMETRIC</t>
+  </si>
+  <si>
+    <t>capri_aic.NONPAR.BOOT</t>
+  </si>
+  <si>
+    <t>capri_aic.STAT.BOOT</t>
+  </si>
+  <si>
+    <t>capri_aic.MEAN.PREDERR</t>
+  </si>
+  <si>
+    <t>capri_aic.SD.PREDERR</t>
+  </si>
+  <si>
+    <t>capri_aic.MEAN.POSTERR</t>
+  </si>
+  <si>
+    <t>capri_aic.SD.POSTERR</t>
+  </si>
+  <si>
     <t>27</t>
-  </si>
-  <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Mutation ALK</t>
-  </si>
-  <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Mutation PIK3CA</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Mutation ARID2</t>
-  </si>
-  <si>
-    <t>Mutation AKT1</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Pattern AND_PIK3CA_RB1</t>
-  </si>
-  <si>
-    <t>Amplification CCNE1</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Amplification PIK3CA</t>
-  </si>
-  <si>
-    <t>Mutation ARID1B</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
-    <t>Mutation TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_STK11</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_STK11_TP53</t>
-  </si>
-  <si>
-    <t>Pattern XOR_PIK3CA</t>
-  </si>
-  <si>
-    <t>capri_aic.SELECTS</t>
-  </si>
-  <si>
-    <t>capri_aic.SELECTED</t>
-  </si>
-  <si>
-    <t>capri_aic.OBS.SELECTS</t>
-  </si>
-  <si>
-    <t>capri_aic.OBS.SELECTED</t>
-  </si>
-  <si>
-    <t>capri_aic.TEMPORAL.PRIORITY</t>
-  </si>
-  <si>
-    <t>capri_aic.PROBABILITY.RAISING</t>
-  </si>
-  <si>
-    <t>capri_aic.HYPERGEOMETRIC</t>
-  </si>
-  <si>
-    <t>capri_aic.NONPAR.BOOT</t>
-  </si>
-  <si>
-    <t>capri_aic.STAT.BOOT</t>
-  </si>
-  <si>
-    <t>capri_aic.MEAN.PREDERR</t>
-  </si>
-  <si>
-    <t>capri_aic.SD.PREDERR</t>
-  </si>
-  <si>
-    <t>capri_aic.MEAN.POSTERR</t>
-  </si>
-  <si>
-    <t>capri_aic.SD.POSTERR</t>
-  </si>
-  <si>
-    <t>28</t>
   </si>
 </sst>
 </file>
@@ -356,25 +350,25 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
         <v>3.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.23751999471512E-10</v>
+        <v>4.98638730127306E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46328156654618E-10</v>
+        <v>1.56420124039081E-9</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -383,16 +377,16 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1375</v>
+        <v>0.11875</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05743353646704259</v>
+        <v>0.03547788826234667</v>
       </c>
       <c r="M2" t="n">
         <v>0.125</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0510310363079829</v>
+        <v>0.0294627825494395</v>
       </c>
     </row>
     <row r="3">
@@ -400,10 +394,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
         <v>3.0</v>
@@ -412,31 +406,31 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.497294669101E-9</v>
+        <v>4.23751999471512E-10</v>
       </c>
       <c r="G3" t="n">
-        <v>3.31352455569443E-9</v>
+        <v>2.46328156654618E-10</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.03952847075210474</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.11875</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.03547788826234667</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.1375</v>
-      </c>
       <c r="N3" t="n">
-        <v>0.0493006648591635</v>
+        <v>0.0621518078757346</v>
       </c>
     </row>
     <row r="4">
@@ -444,43 +438,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
         <v>3.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.98638730127306E-4</v>
+        <v>2.497294669101E-9</v>
       </c>
       <c r="G4" t="n">
-        <v>1.56420124039081E-9</v>
+        <v>3.31352455569443E-9</v>
       </c>
       <c r="H4" t="n">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.11875</v>
+        <v>0.1375</v>
       </c>
       <c r="L4" t="n">
-        <v>0.046116549210788865</v>
+        <v>0.03952847075210474</v>
       </c>
       <c r="M4" t="n">
         <v>0.15</v>
       </c>
       <c r="N4" t="n">
-        <v>0.052704627669473</v>
+        <v>0.0322748612183951</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +482,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
         <v>2.0</v>
@@ -500,16 +494,16 @@
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.62759435766468E-5</v>
+        <v>5.11067883527512E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>5.12394683494785E-10</v>
+        <v>4.21328460987917E-8</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
@@ -532,10 +526,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>2.0</v>
@@ -544,10 +538,10 @@
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>5.11067883527512E-4</v>
+        <v>1.62759435766468E-5</v>
       </c>
       <c r="G6" t="n">
-        <v>4.21328460987917E-8</v>
+        <v>5.12394683494785E-10</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -559,16 +553,16 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.125</v>
+        <v>0.10625</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.04218428485690955</v>
       </c>
       <c r="M6" t="n">
-        <v>0.11875</v>
+        <v>0.1125</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.0395284707521047</v>
       </c>
     </row>
     <row r="7">
@@ -576,10 +570,10 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
         <v>10.0</v>
@@ -597,7 +591,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -620,43 +614,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.80113286381869E-5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.21328460987917E-8</v>
-      </c>
-      <c r="H8" t="n">
+        <v>52</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.125</v>
       </c>
-      <c r="I8" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.11875</v>
-      </c>
       <c r="L8" t="n">
-        <v>0.01976423537605237</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +658,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="e">
         <v>#NUM!</v>
@@ -708,10 +702,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="e">
         <v>#NUM!</v>
@@ -752,10 +746,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="e">
         <v>#NUM!</v>
@@ -796,10 +790,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D12" t="e">
         <v>#NUM!</v>
@@ -840,10 +834,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -884,10 +878,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" t="e">
         <v>#NUM!</v>
@@ -911,7 +905,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K14" t="n">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
@@ -928,10 +922,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -955,7 +949,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
@@ -972,10 +966,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -1016,10 +1010,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -1043,7 +1037,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K17" t="n">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
@@ -1060,10 +1054,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -1087,7 +1081,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
@@ -1104,10 +1098,10 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -1131,7 +1125,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K19" t="n">
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
@@ -1148,10 +1142,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1175,7 +1169,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
@@ -1192,10 +1186,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1236,10 +1230,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1263,7 +1257,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K22" t="n">
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -1280,10 +1274,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1307,7 +1301,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1875</v>
+        <v>0.3125</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -1324,10 +1318,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1351,10 +1345,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3125</v>
+        <v>0.56875</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0</v>
+        <v>0.07482618748361655</v>
       </c>
       <c r="M24" t="e">
         <v>#NUM!</v>
@@ -1368,10 +1362,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1395,10 +1389,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5375</v>
+        <v>0.1875</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08936504412303006</v>
+        <v>0.0</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -1412,10 +1406,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1439,7 +1433,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
@@ -1456,10 +1450,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1483,7 +1477,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
@@ -1492,50 +1486,6 @@
         <v>#NUM!</v>
       </c>
       <c r="N27" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N28" t="e">
         <v>#NUM!</v>
       </c>
     </row>
@@ -1555,69 +1505,69 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>78</v>
-      </c>
-      <c r="M1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
         <v>3.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.23751999471512E-10</v>
+        <v>4.98638730127306E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46328156654618E-10</v>
+        <v>1.56420124039081E-9</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -1626,27 +1576,27 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1375</v>
+        <v>0.11875</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05743353646704259</v>
+        <v>0.03547788826234667</v>
       </c>
       <c r="M2" t="n">
-        <v>0.125</v>
+        <v>0.14375</v>
       </c>
       <c r="N2" t="n">
-        <v>0.058925565098879</v>
+        <v>0.0514545376467853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
         <v>3.0</v>
@@ -1655,86 +1605,86 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.497294669101E-9</v>
+        <v>4.23751999471512E-10</v>
       </c>
       <c r="G3" t="n">
-        <v>3.31352455569443E-9</v>
+        <v>2.46328156654618E-10</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.11875</v>
+        <v>0.1125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03547788826234667</v>
+        <v>0.03952847075210474</v>
       </c>
       <c r="M3" t="n">
-        <v>0.14375</v>
+        <v>0.15</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0421842848569096</v>
+        <v>0.052704627669473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
         <v>3.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.98638730127306E-4</v>
+        <v>2.497294669101E-9</v>
       </c>
       <c r="G4" t="n">
-        <v>1.56420124039081E-9</v>
+        <v>3.31352455569443E-9</v>
       </c>
       <c r="H4" t="n">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.11875</v>
+        <v>0.1375</v>
       </c>
       <c r="L4" t="n">
-        <v>0.046116549210788865</v>
+        <v>0.03952847075210474</v>
       </c>
       <c r="M4" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0510310363079829</v>
+        <v>0.0437003686737563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
         <v>2.0</v>
@@ -1743,16 +1693,16 @@
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.62759435766468E-5</v>
+        <v>5.11067883527512E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>5.12394683494785E-10</v>
+        <v>4.21328460987917E-8</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
@@ -1772,13 +1722,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>2.0</v>
@@ -1787,10 +1737,10 @@
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>5.11067883527512E-4</v>
+        <v>1.62759435766468E-5</v>
       </c>
       <c r="G6" t="n">
-        <v>4.21328460987917E-8</v>
+        <v>5.12394683494785E-10</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -1802,27 +1752,27 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
+        <v>0.10625</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.04218428485690955</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.125</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.11875</v>
-      </c>
       <c r="N6" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
         <v>10.0</v>
@@ -1840,7 +1790,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -1860,40 +1810,40 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
       <c r="D8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E8" t="n">
         <v>2.0</v>
       </c>
-      <c r="E8" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F8" t="n">
-        <v>4.80113286381869E-5</v>
+        <v>2.53831628998583E-13</v>
       </c>
       <c r="G8" t="n">
-        <v>4.21328460987917E-8</v>
+        <v>5.88320388548566E-13</v>
       </c>
       <c r="H8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.125</v>
       </c>
-      <c r="I8" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.11875</v>
-      </c>
       <c r="L8" t="n">
-        <v>0.01976423537605237</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
         <v>0.125</v>
@@ -1907,10 +1857,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
         <v>10.0</v>
@@ -1919,10 +1869,10 @@
         <v>2.0</v>
       </c>
       <c r="F9" t="n">
-        <v>2.53831628998583E-13</v>
+        <v>2.00378811247418E-13</v>
       </c>
       <c r="G9" t="n">
-        <v>5.88320388548566E-13</v>
+        <v>2.41984165061991E-13</v>
       </c>
       <c r="H9" t="n">
         <v>0.375</v>
@@ -1951,25 +1901,25 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E10" t="n">
         <v>2.0</v>
       </c>
       <c r="F10" t="n">
-        <v>2.00378811247418E-13</v>
+        <v>0.429805825948633</v>
       </c>
       <c r="G10" t="n">
-        <v>2.41984165061991E-13</v>
+        <v>9.43290667006178E-5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.375</v>
+        <v>0.241666666666667</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -1984,10 +1934,10 @@
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.125</v>
+        <v>0.18125</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="11">
@@ -1995,25 +1945,25 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E11" t="n">
         <v>2.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.429805825948633</v>
+        <v>2.18800040693637E-12</v>
       </c>
       <c r="G11" t="n">
-        <v>9.43290667006178E-5</v>
+        <v>0.00190577307101904</v>
       </c>
       <c r="H11" t="n">
-        <v>0.241666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
@@ -2028,36 +1978,36 @@
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.18125</v>
+        <v>0.125</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="E12" t="n">
         <v>2.0</v>
       </c>
       <c r="F12" t="n">
-        <v>2.18800040693637E-12</v>
+        <v>2.25677109850776E-13</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00190577307101904</v>
+        <v>1.78581019192025E-14</v>
       </c>
       <c r="H12" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -2083,10 +2033,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D13" t="n">
         <v>10.0</v>
@@ -2095,13 +2045,13 @@
         <v>2.0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.25677109850776E-13</v>
+        <v>2.20706277831708E-13</v>
       </c>
       <c r="G13" t="n">
-        <v>1.78581019192025E-14</v>
+        <v>2.43847198940118E-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0.375</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -2124,34 +2074,34 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.20706277831708E-13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.43847198940118E-13</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0</v>
+        <v>52</v>
+      </c>
+      <c r="D14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K14" t="n">
         <v>0.125</v>
@@ -2159,22 +2109,22 @@
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.0</v>
+      <c r="M14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N14" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -2212,13 +2162,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -2242,7 +2192,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K16" t="n">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
@@ -2256,13 +2206,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -2286,7 +2236,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
@@ -2303,10 +2253,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -2330,7 +2280,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K18" t="n">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
@@ -2347,10 +2297,10 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -2374,7 +2324,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
@@ -2388,13 +2338,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -2418,7 +2368,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
@@ -2432,13 +2382,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -2462,7 +2412,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -2476,13 +2426,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -2523,10 +2473,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -2550,7 +2500,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K23" t="n">
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -2567,10 +2517,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -2594,7 +2544,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1875</v>
+        <v>0.3125</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
@@ -2611,10 +2561,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -2638,10 +2588,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3125</v>
+        <v>0.56875</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>0.07482618748361655</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -2655,10 +2605,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -2682,10 +2632,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5375</v>
+        <v>0.1875</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08936504412303006</v>
+        <v>0.0</v>
       </c>
       <c r="M26" t="e">
         <v>#NUM!</v>
@@ -2699,10 +2649,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -2726,7 +2676,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
@@ -2740,13 +2690,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -2770,7 +2720,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -2779,50 +2729,6 @@
         <v>#NUM!</v>
       </c>
       <c r="N28" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N29" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/output/LUAD_statistics_nonmucinous.xlsx
+++ b/output/LUAD_statistics_nonmucinous.xlsx
@@ -57,15 +57,15 @@
     <t>17</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -135,15 +135,15 @@
     <t>Mutation NF1</t>
   </si>
   <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Mutation ALK</t>
+  </si>
+  <si>
     <t>Mutation EGFR</t>
   </si>
   <si>
-    <t>Mutation ALK</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
     <t>Deletion CDKN2A</t>
   </si>
   <si>
@@ -156,13 +156,13 @@
     <t>Mutation RB1</t>
   </si>
   <si>
+    <t>Mutation AKT1</t>
+  </si>
+  <si>
+    <t>Mutation ARID1A</t>
+  </si>
+  <si>
     <t>Mutation PIK3CA</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
-    <t>Mutation AKT1</t>
   </si>
   <si>
     <t>Mutation ARID2</t>
@@ -377,16 +377,16 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.11875</v>
+        <v>0.14375</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03547788826234667</v>
+        <v>0.04218428485690955</v>
       </c>
       <c r="M2" t="n">
         <v>0.125</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0294627825494395</v>
+        <v>0.0416666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -400,16 +400,16 @@
         <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.23751999471512E-10</v>
+        <v>5.11067883527512E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>2.46328156654618E-10</v>
+        <v>4.21328460987917E-8</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -421,16 +421,16 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1125</v>
+        <v>0.125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03952847075210474</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.11875</v>
+        <v>0.125</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0621518078757346</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -459,22 +459,22 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1375</v>
+        <v>0.125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03952847075210474</v>
+        <v>0.05103103630798288</v>
       </c>
       <c r="M4" t="n">
-        <v>0.15</v>
+        <v>0.13125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0322748612183951</v>
+        <v>0.0354778882623467</v>
       </c>
     </row>
     <row r="5">
@@ -488,16 +488,16 @@
         <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.11067883527512E-4</v>
+        <v>4.23751999471512E-10</v>
       </c>
       <c r="G5" t="n">
-        <v>4.21328460987917E-8</v>
+        <v>2.46328156654618E-10</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -509,16 +509,16 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.125</v>
+        <v>0.1375</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.03952847075210474</v>
       </c>
       <c r="M5" t="n">
-        <v>0.11875</v>
+        <v>0.10625</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.030190368221228</v>
       </c>
     </row>
     <row r="6">
@@ -547,22 +547,22 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.10625</v>
+        <v>0.125</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04218428485690955</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1125</v>
+        <v>0.11875</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0395284707521047</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="7">
@@ -591,7 +591,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -793,7 +793,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" t="e">
         <v>#NUM!</v>
@@ -1013,7 +1013,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -1345,10 +1345,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.56875</v>
+        <v>0.5375</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07482618748361655</v>
+        <v>0.07905694150420949</v>
       </c>
       <c r="M24" t="e">
         <v>#NUM!</v>
@@ -1576,21 +1576,21 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.11875</v>
+        <v>0.14375</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03547788826234667</v>
+        <v>0.04218428485690955</v>
       </c>
       <c r="M2" t="n">
-        <v>0.14375</v>
+        <v>0.15</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0514545376467853</v>
+        <v>0.0437003686737563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -1599,16 +1599,16 @@
         <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.23751999471512E-10</v>
+        <v>5.11067883527512E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>2.46328156654618E-10</v>
+        <v>4.21328460987917E-8</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -1620,16 +1620,16 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1125</v>
+        <v>0.125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03952847075210474</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="N3" t="n">
-        <v>0.052704627669473</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1658,27 +1658,27 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1375</v>
+        <v>0.125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03952847075210474</v>
+        <v>0.05103103630798288</v>
       </c>
       <c r="M4" t="n">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0437003686737563</v>
+        <v>0.0416666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1687,16 +1687,16 @@
         <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.11067883527512E-4</v>
+        <v>4.23751999471512E-10</v>
       </c>
       <c r="G5" t="n">
-        <v>4.21328460987917E-8</v>
+        <v>2.46328156654618E-10</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -1708,16 +1708,16 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.125</v>
+        <v>0.1375</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.03952847075210474</v>
       </c>
       <c r="M5" t="n">
-        <v>0.125</v>
+        <v>0.10625</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.030190368221228</v>
       </c>
     </row>
     <row r="6">
@@ -1746,22 +1746,22 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.10625</v>
+        <v>0.125</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04218428485690955</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.125</v>
+        <v>0.11875</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1790,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -1901,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -1934,10 +1934,10 @@
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.18125</v>
+        <v>0.1875</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -1986,7 +1986,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
@@ -2124,7 +2124,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -2256,7 +2256,7 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
@@ -2588,10 +2588,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.56875</v>
+        <v>0.5375</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07482618748361655</v>
+        <v>0.07905694150420949</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_nonmucinous.xlsx
+++ b/output/LUAD_statistics_nonmucinous.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="81">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -54,21 +54,21 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -132,42 +132,42 @@
     <t>26</t>
   </si>
   <si>
+    <t>Mutation ALK</t>
+  </si>
+  <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
     <t>Mutation NF1</t>
   </si>
   <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Mutation ALK</t>
-  </si>
-  <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
     <t>Pattern OR_EGFR_KRAS</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>Mutation ARID2</t>
+  </si>
+  <si>
+    <t>Mutation AKT1</t>
+  </si>
+  <si>
+    <t>Mutation PIK3CA</t>
+  </si>
+  <si>
     <t>Mutation RB1</t>
   </si>
   <si>
-    <t>Mutation AKT1</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
-    <t>Mutation PIK3CA</t>
-  </si>
-  <si>
-    <t>Mutation ARID2</t>
-  </si>
-  <si>
     <t>Mutation STK11</t>
   </si>
   <si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
 </sst>
 </file>
@@ -359,34 +362,34 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.98638730127306E-4</v>
+        <v>1.2658492001733E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.56420124039081E-9</v>
+        <v>1.74543690958285E-4</v>
       </c>
       <c r="H2" t="n">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.14375</v>
+        <v>0.11875</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04218428485690955</v>
+        <v>0.05472468973568207</v>
       </c>
       <c r="M2" t="n">
-        <v>0.125</v>
+        <v>0.09375</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.0441941738241592</v>
       </c>
     </row>
     <row r="3">
@@ -406,16 +409,16 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>5.11067883527512E-4</v>
+        <v>0.00241875551807461</v>
       </c>
       <c r="G3" t="n">
-        <v>4.21328460987917E-8</v>
+        <v>6.46075857158223E-5</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
@@ -444,37 +447,37 @@
         <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.497294669101E-9</v>
+        <v>0.0152668678049282</v>
       </c>
       <c r="G4" t="n">
-        <v>3.31352455569443E-9</v>
+        <v>4.48733882877253E-4</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.125</v>
+        <v>0.11875</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05103103630798288</v>
+        <v>0.01976423537605237</v>
       </c>
       <c r="M4" t="n">
-        <v>0.13125</v>
+        <v>0.125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0354778882623467</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -494,31 +497,31 @@
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.23751999471512E-10</v>
+        <v>2.65872032607132E-5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46328156654618E-10</v>
+        <v>1.93700160149029E-4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1375</v>
+        <v>0.125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03952847075210474</v>
+        <v>0.02946278254943948</v>
       </c>
       <c r="M5" t="n">
-        <v>0.10625</v>
+        <v>0.125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.030190368221228</v>
+        <v>0.0510310363079829</v>
       </c>
     </row>
     <row r="6">
@@ -532,37 +535,37 @@
         <v>50</v>
       </c>
       <c r="D6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>2.0</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F6" t="n">
-        <v>1.62759435766468E-5</v>
+        <v>0.0508250702582748</v>
       </c>
       <c r="G6" t="n">
-        <v>5.12394683494785E-10</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="I6" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.125</v>
+        <v>0.11875</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.05472468973568207</v>
       </c>
       <c r="M6" t="n">
         <v>0.11875</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.0461165492107889</v>
       </c>
     </row>
     <row r="7">
@@ -582,10 +585,10 @@
         <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.74723388321298E-13</v>
+        <v>1.85244408830608E-6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.80180342042163E-14</v>
+        <v>3.41081837907259E-7</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
@@ -793,7 +796,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="e">
         <v>#NUM!</v>
@@ -837,7 +840,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -881,7 +884,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" t="e">
         <v>#NUM!</v>
@@ -1101,7 +1104,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -1345,10 +1348,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5375</v>
+        <v>0.55</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07905694150420949</v>
+        <v>0.10120798167909266</v>
       </c>
       <c r="M24" t="e">
         <v>#NUM!</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -1558,39 +1561,39 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.98638730127306E-4</v>
+        <v>1.2658492001733E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.56420124039081E-9</v>
+        <v>1.74543690958285E-4</v>
       </c>
       <c r="H2" t="n">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.14375</v>
+        <v>0.11875</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04218428485690955</v>
+        <v>0.05472468973568207</v>
       </c>
       <c r="M2" t="n">
-        <v>0.15</v>
+        <v>0.11875</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0437003686737563</v>
+        <v>0.0547246897356821</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -1605,16 +1608,16 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>5.11067883527512E-4</v>
+        <v>0.00241875551807461</v>
       </c>
       <c r="G3" t="n">
-        <v>4.21328460987917E-8</v>
+        <v>6.46075857158223E-5</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
@@ -1634,7 +1637,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -1643,42 +1646,42 @@
         <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.497294669101E-9</v>
+        <v>0.0152668678049282</v>
       </c>
       <c r="G4" t="n">
-        <v>3.31352455569443E-9</v>
+        <v>4.48733882877253E-4</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.125</v>
+        <v>0.11875</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05103103630798288</v>
+        <v>0.01976423537605237</v>
       </c>
       <c r="M4" t="n">
         <v>0.125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1693,36 +1696,36 @@
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.23751999471512E-10</v>
+        <v>2.65872032607132E-5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46328156654618E-10</v>
+        <v>1.93700160149029E-4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1375</v>
+        <v>0.125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03952847075210474</v>
+        <v>0.02946278254943948</v>
       </c>
       <c r="M5" t="n">
-        <v>0.10625</v>
+        <v>0.13125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.030190368221228</v>
+        <v>0.0461165492107889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -1731,42 +1734,42 @@
         <v>50</v>
       </c>
       <c r="D6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>2.0</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F6" t="n">
-        <v>1.62759435766468E-5</v>
+        <v>0.0508250702582748</v>
       </c>
       <c r="G6" t="n">
-        <v>5.12394683494785E-10</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="I6" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.125</v>
+        <v>0.11875</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.05472468973568207</v>
       </c>
       <c r="M6" t="n">
-        <v>0.11875</v>
+        <v>0.125</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.0416666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -1781,10 +1784,10 @@
         <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.74723388321298E-13</v>
+        <v>1.85244408830608E-6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.80180342042163E-14</v>
+        <v>3.41081837907259E-7</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
@@ -1810,28 +1813,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E8" t="n">
         <v>2.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.53831628998583E-13</v>
+        <v>0.028539028964664</v>
       </c>
       <c r="G8" t="n">
-        <v>5.88320388548566E-13</v>
+        <v>0.014618214576442</v>
       </c>
       <c r="H8" t="n">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -1846,7 +1849,7 @@
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -1854,28 +1857,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="E9" t="n">
         <v>2.0</v>
       </c>
       <c r="F9" t="n">
-        <v>2.00378811247418E-13</v>
+        <v>2.13659747514412E-5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.41984165061991E-13</v>
+        <v>0.0403586831072091</v>
       </c>
       <c r="H9" t="n">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -1898,28 +1901,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E10" t="n">
         <v>2.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.429805825948633</v>
+        <v>1.79734685630721E-6</v>
       </c>
       <c r="G10" t="n">
-        <v>9.43290667006178E-5</v>
+        <v>8.27079517829942E-7</v>
       </c>
       <c r="H10" t="n">
-        <v>0.241666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -1934,7 +1937,7 @@
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -1942,28 +1945,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="E11" t="n">
         <v>2.0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.18800040693637E-12</v>
+        <v>1.34070649092556E-6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00190577307101904</v>
+        <v>8.08695862690572E-7</v>
       </c>
       <c r="H11" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
@@ -1986,28 +1989,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D12" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E12" t="n">
         <v>2.0</v>
       </c>
       <c r="F12" t="n">
-        <v>2.25677109850776E-13</v>
+        <v>0.0917244415515381</v>
       </c>
       <c r="G12" t="n">
-        <v>1.78581019192025E-14</v>
+        <v>0.00396892297417566</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -2022,7 +2025,7 @@
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -2030,28 +2033,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D13" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E13" t="n">
         <v>2.0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.20706277831708E-13</v>
+        <v>0.483007501164905</v>
       </c>
       <c r="G13" t="n">
-        <v>2.43847198940118E-13</v>
+        <v>0.00105928360900704</v>
       </c>
       <c r="H13" t="n">
-        <v>0.375</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -2066,7 +2069,7 @@
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -2074,34 +2077,34 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J14" t="e">
-        <v>#NUM!</v>
+        <v>41</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.339156144958069</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0299834829348257</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.241666666666667</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0</v>
       </c>
       <c r="K14" t="n">
         <v>0.125</v>
@@ -2109,43 +2112,43 @@
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
-      <c r="M14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N14" t="e">
-        <v>#NUM!</v>
+      <c r="M14" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J15" t="e">
-        <v>#NUM!</v>
+      <c r="D15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.41213765108636E-6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.39973456982469E-7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.294642857142857</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
       </c>
       <c r="K15" t="n">
         <v>0.125</v>
@@ -2153,66 +2156,66 @@
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
-      <c r="M15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N15" t="e">
-        <v>#NUM!</v>
+      <c r="M15" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J16" t="e">
-        <v>#NUM!</v>
+        <v>56</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.42679544148497E-6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.9552152334114E-6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
-      <c r="M16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N16" t="e">
-        <v>#NUM!</v>
+      <c r="M16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -2236,7 +2239,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K17" t="n">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
@@ -2256,7 +2259,7 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -2280,7 +2283,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
@@ -2300,7 +2303,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -2324,7 +2327,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K19" t="n">
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
@@ -2344,7 +2347,7 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -2368,7 +2371,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
@@ -2382,13 +2385,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -2412,7 +2415,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -2432,7 +2435,7 @@
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -2476,7 +2479,7 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -2500,7 +2503,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -2520,7 +2523,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -2544,7 +2547,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3125</v>
+        <v>0.1875</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
@@ -2564,7 +2567,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -2588,10 +2591,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5375</v>
+        <v>0.3125</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07905694150420949</v>
+        <v>0.0</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -2608,7 +2611,7 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -2632,10 +2635,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1875</v>
+        <v>0.55</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
+        <v>0.10120798167909266</v>
       </c>
       <c r="M26" t="e">
         <v>#NUM!</v>
@@ -2652,7 +2655,7 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -2676,7 +2679,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
@@ -2696,39 +2699,83 @@
         <v>45</v>
       </c>
       <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N28" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="D29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.1875</v>
       </c>
-      <c r="L28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N28" t="e">
+      <c r="L29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N29" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/output/LUAD_statistics_nonmucinous.xlsx
+++ b/output/LUAD_statistics_nonmucinous.xlsx
@@ -54,21 +54,21 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -132,40 +132,40 @@
     <t>26</t>
   </si>
   <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
     <t>Mutation ALK</t>
   </si>
   <si>
     <t>Deletion CDKN2A</t>
   </si>
   <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
     <t>Mutation EGFR</t>
   </si>
   <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
     <t>Pattern OR_EGFR_KRAS</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Mutation AKT1</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
     <t>Mutation ARID1A</t>
   </si>
   <si>
     <t>Mutation ARID2</t>
   </si>
   <si>
-    <t>Mutation AKT1</t>
-  </si>
-  <si>
     <t>Mutation PIK3CA</t>
-  </si>
-  <si>
-    <t>Mutation RB1</t>
   </si>
   <si>
     <t>Mutation STK11</t>
@@ -359,37 +359,37 @@
         <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
         <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2658492001733E-4</v>
+        <v>0.0152668678049282</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74543690958285E-4</v>
+        <v>4.48733882877253E-4</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.11875</v>
+        <v>0.125</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05472468973568207</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09375</v>
+        <v>0.1125</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0441941738241592</v>
+        <v>0.0395284707521047</v>
       </c>
     </row>
     <row r="3">
@@ -403,19 +403,19 @@
         <v>47</v>
       </c>
       <c r="D3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="n">
         <v>2.0</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F3" t="n">
-        <v>0.00241875551807461</v>
+        <v>0.0508250702582748</v>
       </c>
       <c r="G3" t="n">
-        <v>6.46075857158223E-5</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="I3" t="n">
         <v>80.0</v>
@@ -424,16 +424,16 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.125</v>
+        <v>0.10625</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.05145453764678529</v>
       </c>
       <c r="M3" t="n">
-        <v>0.125</v>
+        <v>0.11875</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.0547246897356821</v>
       </c>
     </row>
     <row r="4">
@@ -447,37 +447,37 @@
         <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0152668678049282</v>
+        <v>1.2658492001733E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>4.48733882877253E-4</v>
+        <v>1.74543690958285E-4</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.11875</v>
+        <v>0.125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01976423537605237</v>
+        <v>0.05103103630798288</v>
       </c>
       <c r="M4" t="n">
-        <v>0.125</v>
+        <v>0.1125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.0493006648591635</v>
       </c>
     </row>
     <row r="5">
@@ -491,37 +491,37 @@
         <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.65872032607132E-5</v>
+        <v>0.00241875551807461</v>
       </c>
       <c r="G5" t="n">
-        <v>1.93700160149029E-4</v>
+        <v>6.46075857158223E-5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.125</v>
+        <v>0.1125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02946278254943948</v>
+        <v>0.03952847075210474</v>
       </c>
       <c r="M5" t="n">
         <v>0.125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0510310363079829</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0508250702582748</v>
+        <v>2.65872032607132E-5</v>
       </c>
       <c r="G6" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>1.93700160149029E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.025</v>
+        <v>0.25</v>
       </c>
       <c r="I6" t="n">
         <v>40.0</v>
@@ -556,13 +556,13 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.11875</v>
+        <v>0.15625</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05472468973568207</v>
+        <v>0.04419417382415922</v>
       </c>
       <c r="M6" t="n">
-        <v>0.11875</v>
+        <v>0.13125</v>
       </c>
       <c r="N6" t="n">
         <v>0.0461165492107889</v>
@@ -594,7 +594,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -796,7 +796,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" t="e">
         <v>#NUM!</v>
@@ -840,7 +840,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -884,7 +884,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" t="e">
         <v>#NUM!</v>
@@ -1016,7 +1016,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -1104,7 +1104,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -1348,10 +1348,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.55</v>
+        <v>0.56875</v>
       </c>
       <c r="L24" t="n">
-        <v>0.10120798167909266</v>
+        <v>0.06215180787573458</v>
       </c>
       <c r="M24" t="e">
         <v>#NUM!</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -1558,42 +1558,42 @@
         <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
         <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2658492001733E-4</v>
+        <v>0.0152668678049282</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74543690958285E-4</v>
+        <v>4.48733882877253E-4</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.11875</v>
+        <v>0.125</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05472468973568207</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
         <v>0.11875</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0547246897356821</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -1602,19 +1602,19 @@
         <v>47</v>
       </c>
       <c r="D3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="n">
         <v>2.0</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F3" t="n">
-        <v>0.00241875551807461</v>
+        <v>0.0508250702582748</v>
       </c>
       <c r="G3" t="n">
-        <v>6.46075857158223E-5</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0.025</v>
       </c>
       <c r="I3" t="n">
         <v>80.0</v>
@@ -1623,21 +1623,21 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.125</v>
+        <v>0.10625</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.05145453764678529</v>
       </c>
       <c r="M3" t="n">
-        <v>0.125</v>
+        <v>0.13125</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.0547246897356821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -1646,42 +1646,42 @@
         <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0152668678049282</v>
+        <v>1.2658492001733E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>4.48733882877253E-4</v>
+        <v>1.74543690958285E-4</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.11875</v>
+        <v>0.125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01976423537605237</v>
+        <v>0.05103103630798288</v>
       </c>
       <c r="M4" t="n">
-        <v>0.125</v>
+        <v>0.13125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.0461165492107889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1690,42 +1690,42 @@
         <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.65872032607132E-5</v>
+        <v>0.00241875551807461</v>
       </c>
       <c r="G5" t="n">
-        <v>1.93700160149029E-4</v>
+        <v>6.46075857158223E-5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.125</v>
+        <v>0.1125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02946278254943948</v>
+        <v>0.03952847075210474</v>
       </c>
       <c r="M5" t="n">
-        <v>0.13125</v>
+        <v>0.11875</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0461165492107889</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -1737,16 +1737,16 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0508250702582748</v>
+        <v>2.65872032607132E-5</v>
       </c>
       <c r="G6" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>1.93700160149029E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.025</v>
+        <v>0.25</v>
       </c>
       <c r="I6" t="n">
         <v>40.0</v>
@@ -1755,16 +1755,16 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.11875</v>
+        <v>0.15625</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05472468973568207</v>
+        <v>0.04419417382415922</v>
       </c>
       <c r="M6" t="n">
-        <v>0.125</v>
+        <v>0.13125</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.0461165492107889</v>
       </c>
     </row>
     <row r="7">
@@ -1793,7 +1793,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -1816,7 +1816,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
@@ -1849,10 +1849,10 @@
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.25</v>
+        <v>0.24375</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="9">
@@ -1992,7 +1992,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -2039,7 +2039,7 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
         <v>2.0</v>
@@ -2069,21 +2069,21 @@
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1875</v>
+        <v>0.18125</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" t="n">
         <v>2.0</v>
@@ -2113,10 +2113,10 @@
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1875</v>
+        <v>0.18125</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="15">
@@ -2127,7 +2127,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="n">
         <v>10.0</v>
@@ -2215,7 +2215,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -2303,7 +2303,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -2635,10 +2635,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.55</v>
+        <v>0.56875</v>
       </c>
       <c r="L26" t="n">
-        <v>0.10120798167909266</v>
+        <v>0.06215180787573458</v>
       </c>
       <c r="M26" t="e">
         <v>#NUM!</v>
